--- a/questions/data_struct_excel.xlsx
+++ b/questions/data_struct_excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farde\OneDrive\Desktop\QPG\Question-Paper-Generator\questions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887FA64-0DF4-4E34-80EC-348F7AB8BA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Questions</t>
   </si>
@@ -142,12 +148,15 @@
   </si>
   <si>
     <t>How many Queues are required to implement a Stack?</t>
+  </si>
+  <si>
+    <t>difficulty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,6 +231,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -269,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,9 +314,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C1" sqref="C1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,212 +571,290 @@
     <col min="2" max="2" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>-18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>4321</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -752,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
